--- a/volumesforNav_Sprint3/GeoJSON_PropertyFields.xlsx
+++ b/volumesforNav_Sprint3/GeoJSON_PropertyFields.xlsx
@@ -65,8 +65,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Stewart</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Stewart:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+need guidance on what this should be</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="358">
   <si>
     <t>version</t>
   </si>
@@ -113,18 +147,6 @@
     <t>Service ID</t>
   </si>
   <si>
-    <t>contractUpdateInterval</t>
-  </si>
-  <si>
-    <t>contractLatency</t>
-  </si>
-  <si>
-    <t>anspTargetReportMinWaitTime</t>
-  </si>
-  <si>
-    <t>anspTargetReportBundleTime</t>
-  </si>
-  <si>
     <t>barometricAltitudeRounding</t>
   </si>
   <si>
@@ -144,27 +166,6 @@
   </si>
   <si>
     <t>tleEnabled</t>
-  </si>
-  <si>
-    <t>rateEquipmentStatus</t>
-  </si>
-  <si>
-    <t>rateServiceVolumeStatus</t>
-  </si>
-  <si>
-    <t>rateServiceVolumeStatistics</t>
-  </si>
-  <si>
-    <t>offlineStatusThreshold</t>
-  </si>
-  <si>
-    <t>degradedStatusThreshold</t>
-  </si>
-  <si>
-    <t>servicePredictionReportLookAhead</t>
-  </si>
-  <si>
-    <t>rateServicePredictionDefinition</t>
   </si>
   <si>
     <t>gstrProvided</t>
@@ -308,22 +309,10 @@
     <t>version number - major.minor</t>
   </si>
   <si>
-    <t>ICAO Assigned code to a country or territory (Decimal)</t>
-  </si>
-  <si>
-    <t>Code assigned by country or territory to identify the surveillance system (Decimal)</t>
-  </si>
-  <si>
-    <t>APD assigned service volume id (Decimal)</t>
-  </si>
-  <si>
     <t>0-256</t>
   </si>
   <si>
     <t>is this volume used for bill calculation</t>
-  </si>
-  <si>
-    <t>rateServicePredictionReport</t>
   </si>
   <si>
     <t>CAT023
@@ -357,9 +346,6 @@
     <t>look ahead window for service prediction reports 1-24 hours, 0=disabled</t>
   </si>
   <si>
-    <t>rateVersionNumberReport</t>
-  </si>
-  <si>
     <t>1-120</t>
   </si>
   <si>
@@ -382,9 +368,6 @@
     <t>update</t>
   </si>
   <si>
-    <t>anspTargetReportPeriodicRate</t>
-  </si>
-  <si>
     <t>mode for target report delivery</t>
   </si>
   <si>
@@ -443,12 +426,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 0xfaafaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cat025</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> false</t>
   </si>
   <si>
     <t>float</t>
@@ -464,12 +441,6 @@
     <t>centerPoint</t>
   </si>
   <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
     <t>stroke</t>
   </si>
   <si>
@@ -566,12 +537,6 @@
   </si>
   <si>
     <t>[-96,36], [-94,36], [-94,35], [-96,35], [-96,36]</t>
-  </si>
-  <si>
-    <t>minimum update interval if mode=update, optional if mode=periodic</t>
-  </si>
-  <si>
-    <t>forced update period if mode = periodic, optional if mode=update</t>
   </si>
   <si>
     <t>bundle time for target reports (10ms increments)</t>
@@ -693,9 +658,6 @@
     <t>delivered rate of service volume report (seconds), 0=disabled</t>
   </si>
   <si>
-    <t>delivered rate of service volume report messages, 0=disabled</t>
-  </si>
-  <si>
     <t>If enabled, the content configurable to identify this report as a test target report to the ANSP e.g. icao, location, etc, optional if disabled</t>
   </si>
   <si>
@@ -709,9 +671,6 @@
   </si>
   <si>
     <t>ANSP</t>
-  </si>
-  <si>
-    <t>flightSegmentTimeOut</t>
   </si>
   <si>
     <t>Number of seconds after which a flight segment is closed when no data is received</t>
@@ -836,9 +795,6 @@
   </si>
   <si>
     <t>multicast address of service delivery to the ANSP alternate</t>
-  </si>
-  <si>
-    <t>flightTimeOut</t>
   </si>
   <si>
     <t>Number of seconds after which a flight is closed when no data is received</t>
@@ -1030,9 +986,6 @@
   </si>
   <si>
     <t>contains geometries of all features (must match count above totalFeatures)</t>
-  </si>
-  <si>
-    <t>Unique ID for this sub-feature within feature (ServiceVolume is 0)</t>
   </si>
   <si>
     <t>properties specific to performance volume features (same parameters as serviceTypeFeatures)</t>
@@ -1142,9 +1095,6 @@
     <t>uses standard GeoJSON format (See example)</t>
   </si>
   <si>
-    <t>ceiling</t>
-  </si>
-  <si>
     <t>defines the coordinate reference system as WGS-84</t>
   </si>
   <si>
@@ -1186,13 +1136,109 @@
   </si>
   <si>
     <t>file modified date</t>
+  </si>
+  <si>
+    <t>cat025</t>
+  </si>
+  <si>
+    <t>radiusNMI</t>
+  </si>
+  <si>
+    <t>floorFeet</t>
+  </si>
+  <si>
+    <t>ceilingFeet</t>
+  </si>
+  <si>
+    <t>contractUpdateIntervalMsecs</t>
+  </si>
+  <si>
+    <t>contractLatencyMsecs</t>
+  </si>
+  <si>
+    <t>anspTargetReportMinWaitTimeMsecs</t>
+  </si>
+  <si>
+    <t>minimum update interval if mode=update, optional if mode=periodic in milliseconds</t>
+  </si>
+  <si>
+    <t>anspTargetReportPeriodicRateMsecs</t>
+  </si>
+  <si>
+    <t>forced update period if mode = periodic, optional if mode=update in milliseconds</t>
+  </si>
+  <si>
+    <t>offlineStatusThresholdPercent</t>
+  </si>
+  <si>
+    <t>degradedStatusThresholdPercent</t>
+  </si>
+  <si>
+    <t>anspTargetReportBundleTimeMsecs</t>
+  </si>
+  <si>
+    <t>delivered rate of service volume report messages(seconds), 0=disabled</t>
+  </si>
+  <si>
+    <t>rateEquipmentStatusSecs</t>
+  </si>
+  <si>
+    <t>rateServiceVolumeStatusSecs</t>
+  </si>
+  <si>
+    <t>rateServiceVolumeStatisticsSecs</t>
+  </si>
+  <si>
+    <t>servicePredictionReportLookAheadHours</t>
+  </si>
+  <si>
+    <t>rateServicePredictionReportMins</t>
+  </si>
+  <si>
+    <t>rateServicePredictionDefinitionMins</t>
+  </si>
+  <si>
+    <t>rateVersionNumberReportMins</t>
+  </si>
+  <si>
+    <t>flightSegmentTimeOutSecs</t>
+  </si>
+  <si>
+    <t>flightTimeOutSecs</t>
+  </si>
+  <si>
+    <t>ICAO Assigned code to a country or territory (hex)</t>
+  </si>
+  <si>
+    <t>Code assigned by country or territory to identify the surveillance system (hex)</t>
+  </si>
+  <si>
+    <t>APD assigned service volume id (hex)</t>
+  </si>
+  <si>
+    <t>0xC4</t>
+  </si>
+  <si>
+    <t>0x32</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>Unique ID for this sub-feature within feature (ServiceVolume is 0x00)(hex)</t>
+  </si>
+  <si>
+    <t>human readable, but consumable by WorkDay - this is the link between customer and features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,8 +1298,21 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,9 +1539,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1514,6 +1576,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1522,6 +1587,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1810,7 +1891,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,38 +1910,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>10</v>
@@ -1878,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -1892,25 +1973,25 @@
         <v>1.01</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -1919,31 +2000,31 @@
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O33" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -1952,31 +2033,31 @@
     </row>
     <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -1985,22 +2066,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -2009,32 +2090,32 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="19" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -2046,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
@@ -2058,19 +2139,19 @@
     </row>
     <row r="9" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
@@ -2082,45 +2163,45 @@
  }",</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="30" t="str">
+    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="O10" s="29" t="str">
         <f>""""&amp;A10&amp;""""&amp;":"&amp;""""&amp;B10&amp;""""&amp;","</f>
         <v>"customerCollection":"[]",</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -2129,19 +2210,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -2150,19 +2231,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -2171,16 +2252,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B14" s="13">
         <v>5</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="O14" t="str">
         <f>""""&amp;A14&amp;""""&amp;":"&amp;""""&amp;B14&amp;""""&amp;","</f>
@@ -2188,17 +2269,17 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>335</v>
+      <c r="A15" s="37" t="s">
+        <v>308</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="O15" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;"[ {"</f>
@@ -2334,7 +2415,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2353,38 +2434,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -2402,42 +2483,42 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B3" s="13">
         <v>1.01</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O14" si="0">""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -2446,34 +2527,34 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
@@ -2482,35 +2563,35 @@
     </row>
     <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -2519,35 +2600,35 @@
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
@@ -2556,25 +2637,25 @@
     </row>
     <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -2583,68 +2664,68 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v>"volumeName":"GanderCentralFIR",</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="30" t="str">
+    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="O9" s="29" t="str">
         <f t="shared" si="0"/>
         <v>"icaoID":"CZQX",</v>
       </c>
@@ -2653,268 +2734,268 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13">
-        <v>196</v>
+      <c r="B10" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>"sac":"196",</v>
+        <v>"sac":"0xC4",</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13">
-        <v>32</v>
+      <c r="B11" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>"sic":"32",</v>
+        <v>"sic":"0x32",</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13">
-        <v>1</v>
+      <c r="B12" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>"sid":"1",</v>
+        <v>"sid":"0x01",</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>"featureID":"0",</v>
+        <v>"featureID":"0x00",</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
         <v>"featureType":"service",</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="O15" s="30" t="str">
+    <row r="15" spans="1:15" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="O15" s="29" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;""""&amp;B15&amp;""""&amp;","</f>
         <v>"featureState":"active",</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="O16" t="str">
         <f>""""&amp;A16&amp;""""&amp;":"&amp;"{"</f>
@@ -2923,29 +3004,29 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="K17" s="3"/>
       <c r="M17" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="O17" t="str">
         <f>""""&amp;A17&amp;""""&amp;":"&amp;"{"</f>
@@ -2954,25 +3035,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="K18" s="3"/>
       <c r="M18" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="O18" t="str">
         <f>""""&amp;A18&amp;""""&amp;":"&amp;"{"</f>
@@ -2981,86 +3062,86 @@
     </row>
     <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="13" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="O19" t="str">
         <f>""""&amp;A19&amp;""""&amp;":"&amp;"{"</f>
         <v>"performanceFeatureProperties":{</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="M20" s="34"/>
+    <row r="20" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" ref="O21:O27" si="1">""""&amp;A21&amp;""""&amp;":"&amp;""""&amp;B21&amp;""""&amp;","</f>
@@ -3069,31 +3150,31 @@
     </row>
     <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="K22" s="10"/>
       <c r="O22" t="str">
@@ -3102,146 +3183,146 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>130</v>
+      <c r="A23" s="49" t="s">
+        <v>327</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
-        <v>"radius":"NA",</v>
+        <v>"radiusNMI":"NA",</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>131</v>
+      <c r="A24" s="49" t="s">
+        <v>328</v>
       </c>
       <c r="B24" s="13">
         <v>18000</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L24">
         <v>18000</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="1"/>
-        <v>"floor":"18000",</v>
+        <v>"floorFeet":"18000",</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>339</v>
+      <c r="A25" s="49" t="s">
+        <v>329</v>
       </c>
       <c r="B25" s="13">
         <v>60000</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L25">
         <v>60000</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="1"/>
-        <v>"ceiling":"60000",</v>
+        <v>"ceilingFeet":"60000",</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="1"/>
@@ -3250,23 +3331,23 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="M27"/>
       <c r="O27" t="str">
@@ -3276,7 +3357,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B28" s="17">
         <v>2</v>
@@ -3285,14 +3366,14 @@
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="M28"/>
       <c r="O28" t="str">
@@ -3302,7 +3383,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B29" s="17">
         <v>1</v>
@@ -3311,17 +3392,17 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="M29"/>
       <c r="O29" t="str">
@@ -3331,23 +3412,23 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M30"/>
       <c r="O30" t="str">
@@ -3357,7 +3438,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B31" s="17">
         <v>0.5</v>
@@ -3366,14 +3447,14 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="M31"/>
       <c r="O31" t="str">
@@ -3383,22 +3464,22 @@
     </row>
     <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O32" t="str">
         <f>""""&amp;A32&amp;""""&amp;":"&amp;""""&amp;B32&amp;""""&amp;","</f>
@@ -3426,11 +3507,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,38 +3530,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -3498,10 +3579,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -3509,32 +3590,32 @@
         <v>4</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="21"/>
@@ -3548,34 +3629,34 @@
         <v>5</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="21" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="O4" s="18" t="str">
         <f>""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -3583,184 +3664,184 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>15</v>
+      <c r="A5" s="48" t="s">
+        <v>330</v>
       </c>
       <c r="B5" s="20">
         <v>700</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="O5" s="18" t="str">
         <f>""""&amp;A5&amp;""""&amp;":"&amp;B5&amp;","</f>
-        <v>"contractUpdateInterval":700,</v>
+        <v>"contractUpdateIntervalMsecs":700,</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>16</v>
+      <c r="A6" s="48" t="s">
+        <v>331</v>
       </c>
       <c r="B6" s="20">
         <v>1500</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="L6" s="18">
         <v>2000</v>
       </c>
       <c r="O6" s="18" t="str">
         <f>""""&amp;A6&amp;""""&amp;":"&amp;B6&amp;","</f>
-        <v>"contractLatency":1500,</v>
+        <v>"contractLatencyMsecs":1500,</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O7" t="str">
         <f>""""&amp;A7&amp;""""&amp;":"&amp;""""&amp;B7&amp;""""&amp;","</f>
         <v>"anspTargetReportUpdateMode":"update",</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>332</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O8" s="18" t="str">
         <f>""""&amp;A8&amp;""""&amp;":"&amp;B8&amp;","</f>
-        <v>"anspTargetReportMinWaitTime":0,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>103</v>
+        <v>"anspTargetReportMinWaitTimeMsecs":0,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="49" t="s">
+        <v>334</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O9" s="18" t="str">
         <f>""""&amp;A9&amp;""""&amp;":"&amp;B9&amp;","</f>
-        <v>"anspTargetReportPeriodicRate":0,</v>
+        <v>"anspTargetReportPeriodicRateMsecs":0,</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O10" t="str">
         <f>""""&amp;A10&amp;""""&amp;":"&amp;""""&amp;B10&amp;""""&amp;","</f>
@@ -3769,28 +3850,28 @@
     </row>
     <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O11" t="str">
         <f>""""&amp;A11&amp;""""&amp;":"&amp;""""&amp;B11&amp;""""&amp;","</f>
@@ -3799,28 +3880,28 @@
     </row>
     <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O12" t="str">
         <f>""""&amp;A12&amp;""""&amp;":"&amp;""""&amp;B12&amp;""""&amp;","</f>
@@ -3829,29 +3910,29 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
         <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
       </c>
       <c r="O13" t="str">
         <f>""""&amp;A13&amp;""""&amp;":"&amp;""""&amp;B13&amp;""""&amp;","</f>
@@ -3859,95 +3940,95 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
+      <c r="A14" s="49" t="s">
+        <v>336</v>
       </c>
       <c r="B14" s="4">
         <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="O14" s="18" t="str">
         <f>""""&amp;A14&amp;""""&amp;":"&amp;B14&amp;","</f>
-        <v>"offlineStatusThreshold":90,</v>
+        <v>"offlineStatusThresholdPercent":90,</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
+      <c r="A15" s="49" t="s">
+        <v>337</v>
       </c>
       <c r="B15" s="4">
         <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="O15" s="18" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;B15&amp;","</f>
-        <v>"degradedStatusThreshold":50,</v>
+        <v>"degradedStatusThresholdPercent":50,</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="O16" t="str">
         <f>""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
@@ -3956,32 +4037,32 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="L17" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="O17" t="str">
         <f>""""&amp;A17&amp;""""&amp;":"&amp;""""&amp;B17&amp;""""&amp;","</f>
@@ -3990,406 +4071,406 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B18" s="17">
         <v>59980</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L18" s="17">
         <v>59980</v>
       </c>
       <c r="O18" s="18" t="str">
-        <f>""""&amp;A18&amp;""""&amp;":"&amp;B18&amp;","</f>
+        <f t="shared" ref="O18:O29" si="0">""""&amp;A18&amp;""""&amp;":"&amp;B18&amp;","</f>
         <v>"portTargetReportsCAT021":59980,</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B19" s="17">
         <v>59991</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L19" s="17">
         <v>59991</v>
       </c>
       <c r="O19" s="18" t="str">
-        <f>""""&amp;A19&amp;""""&amp;":"&amp;B19&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portVersionNumberCAT247":59991,</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B20" s="17">
         <v>65535</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L20" s="17">
         <v>65535</v>
       </c>
       <c r="O20" s="18" t="str">
-        <f>""""&amp;A20&amp;""""&amp;":"&amp;B20&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portAPDKeepAlive":65535,</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B21" s="17">
         <v>59986</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L21" s="17">
         <v>59986</v>
       </c>
       <c r="O21" s="18" t="str">
-        <f>""""&amp;A21&amp;""""&amp;":"&amp;B21&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portGSTR":59986,</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B22" s="17">
         <v>59982</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L22" s="17">
         <v>59982</v>
       </c>
       <c r="O22" s="18" t="str">
-        <f>""""&amp;A22&amp;""""&amp;":"&amp;B22&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portEquipmentStatusCAT023":59982,</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B23" s="17">
         <v>59983</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L23" s="17">
         <v>59983</v>
       </c>
       <c r="O23" s="18" t="str">
-        <f>""""&amp;A23&amp;""""&amp;":"&amp;B23&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServiceVolumeStatusCAT023":59983,</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B24" s="4">
         <v>59984</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L24" s="17">
         <v>59984</v>
       </c>
       <c r="O24" s="18" t="str">
-        <f>""""&amp;A24&amp;""""&amp;":"&amp;B24&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServiceVolumeStatisticsCAT023":59984,</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B25" s="4">
         <v>59988</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L25" s="17">
         <v>59988</v>
       </c>
       <c r="O25" s="18" t="str">
-        <f>""""&amp;A25&amp;""""&amp;":"&amp;B25&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServiceDefinitionReportCAT238":59988,</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B26" s="4">
         <v>59990</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L26" s="17">
         <v>59990</v>
       </c>
       <c r="O26" s="18" t="str">
-        <f>""""&amp;A26&amp;""""&amp;":"&amp;B26&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServicePredictionReportCAT238":59990,</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B27" s="4">
         <v>59992</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L27" s="17">
         <v>59992</v>
       </c>
       <c r="O27" s="18" t="str">
-        <f>""""&amp;A27&amp;""""&amp;":"&amp;B27&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServiceSystemStatusReportCAT025":59992,</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B28" s="4">
         <v>59993</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L28" s="17">
         <v>59993</v>
       </c>
       <c r="O28" s="18" t="str">
-        <f>""""&amp;A28&amp;""""&amp;":"&amp;B28&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portServiceStatisticsReport":59993,</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B29" s="4">
         <v>59994</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L29" s="17">
         <v>59994</v>
       </c>
       <c r="O29" s="18" t="str">
-        <f>""""&amp;A29&amp;""""&amp;":"&amp;B29&amp;","</f>
+        <f t="shared" si="0"/>
         <v>"portConstellationTLEReport":59994,</v>
       </c>
     </row>
@@ -4410,10 +4491,10 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4432,38 +4513,38 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4481,69 +4562,69 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"billable":"false",</v>
       </c>
       <c r="R3" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O9" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -4552,25 +4633,25 @@
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4579,34 +4660,34 @@
     </row>
     <row r="6" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K6" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="O6" t="str">
         <f>""""&amp;A6&amp;""""&amp;":"&amp;B6&amp;","</f>
@@ -4615,27 +4696,27 @@
     </row>
     <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="L7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -4644,22 +4725,22 @@
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
@@ -4668,25 +4749,25 @@
     </row>
     <row r="9" spans="1:18" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="M9" s="21"/>
       <c r="O9" t="str">
@@ -4766,38 +4847,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -4815,10 +4896,10 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -5057,17 +5138,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5085,38 +5166,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -5134,497 +5215,520 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="32">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="51" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="O3" s="51" t="str">
+        <f t="shared" ref="O3" si="0">""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
+        <v>"customerID":"NAVCanada",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="31">
         <v>50</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" s="30" t="str">
-        <f>""""&amp;A3&amp;""""&amp;":"&amp;B3&amp;","</f>
-        <v>"anspTargetReportBundleTime":50,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32" t="s">
+      <c r="C4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="29" t="str">
+        <f>""""&amp;A4&amp;""""&amp;":"&amp;B4&amp;","</f>
+        <v>"anspTargetReportBundleTimeMsecs":50,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="29" t="str">
+        <f>""""&amp;A5&amp;""""&amp;":"&amp;""""&amp;B5&amp;""""&amp;","</f>
+        <v>"barometricAltitudeRounding":" true",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="29" t="str">
+        <f>""""&amp;A6&amp;""""&amp;":"&amp;""""&amp;B6&amp;""""&amp;","</f>
+        <v>"statusReportFormat":"cat025",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="29" t="str">
+        <f>""""&amp;A7&amp;""""&amp;":"&amp;""""&amp;B7&amp;""""&amp;","</f>
+        <v>"tleEnabled":" true",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="31">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="29">
+        <v>5</v>
+      </c>
+      <c r="O8" s="29" t="str">
+        <f t="shared" ref="O8:O14" si="1">""""&amp;A8&amp;""""&amp;":"&amp;B8&amp;","</f>
+        <v>"rateEquipmentStatusSecs":5,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="29">
+        <v>5</v>
+      </c>
+      <c r="O9" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"rateServiceVolumeStatusSecs":5,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="31">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="29">
+        <v>5</v>
+      </c>
+      <c r="O10" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"rateServiceVolumeStatisticsSecs":5,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="31">
+        <v>24</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="29">
+        <v>24</v>
+      </c>
+      <c r="O11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"servicePredictionReportLookAheadHours":24,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2</v>
+      </c>
+      <c r="O12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"rateServicePredictionReportMins":1,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="29">
+        <v>5</v>
+      </c>
+      <c r="O13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"rateServicePredictionDefinitionMins":12,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="B14" s="31">
+        <v>60</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="O14" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>"rateVersionNumberReportMins":60,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="29" t="str">
+        <f>""""&amp;A15&amp;""""&amp;":"&amp;""""&amp;B15&amp;""""&amp;","</f>
+        <v>"gstrProvided":"FALSE",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="O4" s="30" t="str">
-        <f>""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
-        <v>"barometricAltitudeRounding":" true",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="30" t="str">
-        <f>""""&amp;A5&amp;""""&amp;":"&amp;""""&amp;B5&amp;""""&amp;","</f>
-        <v>"statusReportFormat":" cat025",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="30" t="str">
-        <f>""""&amp;A6&amp;""""&amp;":"&amp;""""&amp;B6&amp;""""&amp;","</f>
-        <v>"tleEnabled":" true",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="32">
-        <v>5</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="30">
-        <v>5</v>
-      </c>
-      <c r="O7" s="30" t="str">
-        <f>""""&amp;A7&amp;""""&amp;":"&amp;B7&amp;","</f>
-        <v>"rateEquipmentStatus":5,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="32">
-        <v>5</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" s="30">
-        <v>5</v>
-      </c>
-      <c r="O8" s="30" t="str">
-        <f>""""&amp;A8&amp;""""&amp;":"&amp;B8&amp;","</f>
-        <v>"rateServiceVolumeStatus":5,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="32">
-        <v>5</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="30">
-        <v>5</v>
-      </c>
-      <c r="O9" s="30" t="str">
-        <f>""""&amp;A9&amp;""""&amp;":"&amp;B9&amp;","</f>
-        <v>"rateServiceVolumeStatistics":5,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="32">
-        <v>24</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="34" t="s">
+      <c r="B16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="30">
-        <v>24</v>
-      </c>
-      <c r="O10" s="30" t="str">
-        <f>""""&amp;A10&amp;""""&amp;":"&amp;B10&amp;","</f>
-        <v>"servicePredictionReportLookAhead":24,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L11" s="30">
-        <v>2</v>
-      </c>
-      <c r="O11" s="30" t="str">
-        <f>""""&amp;A11&amp;""""&amp;":"&amp;B11&amp;","</f>
-        <v>"rateServicePredictionReport":1,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="32">
-        <v>12</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="30">
-        <v>5</v>
-      </c>
-      <c r="O12" s="30" t="str">
-        <f>""""&amp;A12&amp;""""&amp;":"&amp;B12&amp;","</f>
-        <v>"rateServicePredictionDefinition":12,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="32">
-        <v>60</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="30" t="str">
-        <f>""""&amp;A13&amp;""""&amp;":"&amp;B13&amp;","</f>
-        <v>"rateVersionNumberReport":60,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" s="30" t="str">
-        <f>""""&amp;A14&amp;""""&amp;":"&amp;""""&amp;B14&amp;""""&amp;","</f>
-        <v>"gstrProvided":" false",</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="30" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="30" t="str">
-        <f>""""&amp;A15&amp;""""&amp;":"&amp;""""&amp;B15&amp;""""&amp;","</f>
+      <c r="L16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" s="29" t="str">
+        <f>""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
         <v>"networkServicesGSTR":"239.1.4.5",</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="O16" t="str">
-        <f t="shared" ref="O16:O34" si="0">""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
-        <v>"":"",</v>
-      </c>
-    </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="O17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O17:O35" si="2">""""&amp;A17&amp;""""&amp;":"&amp;""""&amp;B17&amp;""""&amp;","</f>
         <v>"":"",</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
       <c r="O18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I19" s="28"/>
-      <c r="K19" s="11"/>
+      <c r="A19" s="2"/>
+      <c r="K19" s="3"/>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-      <c r="H20" s="13"/>
       <c r="I20" s="28"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B21" s="11"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="28"/>
       <c r="K21" s="10"/>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="10"/>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
@@ -5632,76 +5736,84 @@
       <c r="I23" s="28"/>
       <c r="K23" s="28"/>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I24" s="28"/>
+      <c r="K24" s="28"/>
       <c r="O24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="I25" s="28"/>
       <c r="O25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I26" s="28"/>
+      <c r="A26" s="2"/>
       <c r="O26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I27" s="28"/>
       <c r="O27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="O32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.35">
       <c r="O33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.35">
       <c r="O34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>"":"",</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O35" t="str">
+        <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
@@ -5713,6 +5825,8 @@
     <hyperlink ref="A1" location="featureProperties!A1" display="back to Parent"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5724,7 +5838,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5742,38 +5856,38 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -5791,52 +5905,52 @@
         <v>8</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>209</v>
+      <c r="A3" s="49" t="s">
+        <v>347</v>
       </c>
       <c r="B3" s="13">
         <v>60</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
-        <v>"flightSegmentTimeOut":"60",</v>
+        <v>"flightSegmentTimeOutSecs":"60",</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>251</v>
+      <c r="A4" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="B4" s="13">
         <v>240</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O34" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
-        <v>"flightTimeOut":"240",</v>
+        <v>"flightTimeOutSecs":"240",</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -6092,36 +6206,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6143,103 +6257,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>208</v>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41" t="s">
-        <v>54</v>
+      <c r="A2" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>54</v>
+      <c r="A3" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>54</v>
+      <c r="A4" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>54</v>
+      <c r="A5" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44" t="s">
-        <v>349</v>
+      <c r="A6" s="43" t="s">
+        <v>321</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>

--- a/volumesforNav_Sprint3/GeoJSON_PropertyFields.xlsx
+++ b/volumesforNav_Sprint3/GeoJSON_PropertyFields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" tabRatio="889"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7340" tabRatio="889"/>
   </bookViews>
   <sheets>
     <sheet name="documentMaster" sheetId="7" r:id="rId1"/>
@@ -31,79 +31,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Stewart</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Stewart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-need guidance on what this should be</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Stewart</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Stewart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-need guidance on what this should be</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="358">
-  <si>
-    <t>version</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="373">
   <si>
     <t>sac</t>
   </si>
@@ -151,15 +80,6 @@
   </si>
   <si>
     <t>anspTestTargetReportEnabled</t>
-  </si>
-  <si>
-    <t>anspTestTargetReportCustom</t>
-  </si>
-  <si>
-    <t>anspTestTargetReportCustomField</t>
-  </si>
-  <si>
-    <t>anspTestTargetReportCustomValue</t>
   </si>
   <si>
     <t>statusReportFormat</t>
@@ -258,9 +178,6 @@
     <t>Latency from receipt of ADS-B message to delivery to SDP in milliseconds</t>
   </si>
   <si>
-    <t>Time/Date that volume information should be utilized in system processing  ISO 8601 format  YYYY-MM-DDTHH:MM:SS.sssZ</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -304,9 +221,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>version number - major.minor</t>
   </si>
   <si>
     <t>0-256</t>
@@ -337,9 +251,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>0-24</t>
   </si>
   <si>
@@ -422,12 +333,6 @@
     <t xml:space="preserve"> true</t>
   </si>
   <si>
-    <t xml:space="preserve"> icao</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0xfaafaa</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -484,9 +389,6 @@
     <t>0-300</t>
   </si>
   <si>
-    <t>List of vertices of polygon</t>
-  </si>
-  <si>
     <t>Longitude and Latitude of centroid of the geography</t>
   </si>
   <si>
@@ -542,12 +444,6 @@
     <t>bundle time for target reports (10ms increments)</t>
   </si>
   <si>
-    <t>customized field for test target reports enabled/disabled, optional if disabled</t>
-  </si>
-  <si>
-    <t>value for custom field of Test Target Report, optional if disabled</t>
-  </si>
-  <si>
     <t>delivered rate of service prediction definition reports (minutes), optional if disabled</t>
   </si>
   <si>
@@ -560,18 +456,12 @@
     <t>multicast address of GSTR delivery from ANSP to APD, optional if GSTR not provided</t>
   </si>
   <si>
-    <t>type of billing for this volume, optional if not billable</t>
-  </si>
-  <si>
     <t>is this service volume eligible for availability based credits, optional if not billable</t>
   </si>
   <si>
     <t>Value indicating that if there are overlapping billing volumes, which should take precedence for rate calculation.</t>
   </si>
   <si>
-    <t>time at which the defined billing type and rate should be calcuated and billed, must be in the future</t>
-  </si>
-  <si>
     <t>fill color in RGB hex- geojson standard property for drawing</t>
   </si>
   <si>
@@ -597,12 +487,6 @@
   </si>
   <si>
     <t>Pressure Altitude Rounding</t>
-  </si>
-  <si>
-    <t>icao (hex)
-position
-acid
-more to come</t>
   </si>
   <si>
     <t>bbox</t>
@@ -658,9 +542,6 @@
     <t>delivered rate of service volume report (seconds), 0=disabled</t>
   </si>
   <si>
-    <t>If enabled, the content configurable to identify this report as a test target report to the ANSP e.g. icao, location, etc, optional if disabled</t>
-  </si>
-  <si>
     <t>format of status reports delivered to ANSP</t>
   </si>
   <si>
@@ -688,16 +569,7 @@
     <t>date/time that this file was modified</t>
   </si>
   <si>
-    <t>date/time that this feature was modified</t>
-  </si>
-  <si>
-    <t>FeatureCollection</t>
-  </si>
-  <si>
     <t>crs</t>
-  </si>
-  <si>
-    <t>pre-defined text</t>
   </si>
   <si>
     <t>totalFeatures</t>
@@ -843,12 +715,6 @@
   </si>
   <si>
     <t>portServiceSystemStatusReportCAT025</t>
-  </si>
-  <si>
-    <t>portServiceStatisticsReport</t>
-  </si>
-  <si>
-    <t>portConstellationTLEReport</t>
   </si>
   <si>
     <t>port number for multicast delivery of CAT021 reports to ANSP</t>
@@ -965,9 +831,6 @@
   </si>
   <si>
     <t>only several elements defined</t>
-  </si>
-  <si>
-    <t>v0.1e</t>
   </si>
   <si>
     <t>active</t>
@@ -1104,13 +967,6 @@
     <t>ICAO name of FIR related to this volume</t>
   </si>
   <si>
-    <t>Null by default - only used when deactivating - time at which the defined billing type and rate should cease to be calcuated and billed</t>
-  </si>
-  <si>
-    <t>null by default - only used when actively removing a volume - Time/Date that volume information should cease to be utilized in system processing ISO 8601 format YYYY-MM-DDTHH:MM:SS.sssZ
-nothing should be done automatically based on this for now</t>
-  </si>
-  <si>
     <t>preview</t>
   </si>
   <si>
@@ -1232,13 +1088,133 @@
   </si>
   <si>
     <t>human readable, but consumable by WorkDay - this is the link between customer and features</t>
+  </si>
+  <si>
+    <t>v0.1g</t>
+  </si>
+  <si>
+    <t>2099-12-31T23:59:59.999Z</t>
+  </si>
+  <si>
+    <t>2099-12-31T23:59:59.999Z by default - only set to a valid date when actively removing a volume, also the featureState changes to expiring - Time/Date that volume information should cease to be utilized in system processing ISO 8601 format YYYY-MM-DDTHH:MM:SS.sssZ</t>
+  </si>
+  <si>
+    <t>Time/Date that the volume is first utilized in system processing  ISO 8601 format  YYYY-MM-DDTHH:MM:SS.sssZ</t>
+  </si>
+  <si>
+    <t>2099-12-31T23:59:59.999Z by default - only set to valid date when deactivating - time at which the defined billing type and rate should cease to be calcuated and billed. ISO 8601 format  YYYY-MM-DDTHH:MM:SS.sssZ</t>
+  </si>
+  <si>
+    <t>time at which the defined billing type should be calcuated and billed, must be in the future. ISO 8601 format  YYYY-MM-DDTHH:MM:SS.sssZ</t>
+  </si>
+  <si>
+    <t>billingRate</t>
+  </si>
+  <si>
+    <t>billing rate or plan</t>
+  </si>
+  <si>
+    <t>file version number - monotonically increasing</t>
+  </si>
+  <si>
+    <t>version number - monotonically increasing</t>
+  </si>
+  <si>
+    <t>portServiceStatisticsReportCAT025</t>
+  </si>
+  <si>
+    <t>portConstellationTLEReportCAT253</t>
+  </si>
+  <si>
+    <t>date/time that values should take effect.  Mechanism for systems with temporaility to determine when property changes should take effect . ISO 8601 format  YYYY-MM-DDTHH:MM:SS.sssZ</t>
+  </si>
+  <si>
+    <t>fileFormatVersion</t>
+  </si>
+  <si>
+    <t>File Format Version</t>
+  </si>
+  <si>
+    <t>version number of the GeoJSON file definition</t>
+  </si>
+  <si>
+    <t>fileVersion</t>
+  </si>
+  <si>
+    <t>placeholder for future use</t>
+  </si>
+  <si>
+    <t>List of vertices of polygon.   Must contain the "type" and coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+   "type": "Polygon",
+   "coordinates": [
+     [[-96,36], [-94,36], [-94,35], [-96,35], [-96,36]]}</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportICAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0xabc123</t>
+  </si>
+  <si>
+    <t>Test Target Report ICAO Address (I021/080)</t>
+  </si>
+  <si>
+    <t>0x000000-0xFFFFFF</t>
+  </si>
+  <si>
+    <t>0x000000</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportPosition</t>
+  </si>
+  <si>
+    <t>Test Target Report WGS-84 position (I021/130 or I021/131)</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportPosType</t>
+  </si>
+  <si>
+    <t>Test Target Report WGS-84 position type (0 = I021/130 or 1 = I021/131)</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportAltFeet</t>
+  </si>
+  <si>
+    <t>Test Target Report Altitude setting (I021/145)</t>
+  </si>
+  <si>
+    <t>-15000-150000</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportRxID</t>
+  </si>
+  <si>
+    <t>Test Target Report Receiver ID (I021/400)</t>
+  </si>
+  <si>
+    <t>anspTestTargetReportTargetID</t>
+  </si>
+  <si>
+    <t>TESTTARG</t>
+  </si>
+  <si>
+    <t>Test Target Report Target Identification (I021/170), up to 8 characters</t>
+  </si>
+  <si>
+    <t>type of billing for this volume, default is time if not billable</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,19 +1240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -1300,19 +1263,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,18 +1292,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,12 +1316,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEFF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1478,9 +1430,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1520,9 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1539,69 +1485,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1891,15 +1871,15 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.7265625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.7265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
@@ -1910,248 +1890,311 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+        <v>334</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>133</v>
+      <c r="M2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1.01</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>66</v>
+      <c r="A3" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>342</v>
       </c>
       <c r="O3" t="str">
-        <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
-        <v>"version":"1.01",</v>
+        <f>""""&amp;A3&amp;""""&amp;":"&amp;B3&amp;","</f>
+        <v>"fileVersion":1,</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O33" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"checksum":"f4eeb09a354c4542cf5317bdc9aa1e5c",</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O5" t="str">
+    <row r="5" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="O5" s="47" t="str">
+        <f>""""&amp;A5&amp;""""&amp;":"&amp;B5&amp;","</f>
+        <v>"fileFormatVersion":1,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>"fileName":"gander_NavCanada1",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="0"/>
-        <v>"fileGeneratedBy":"SV Config Tool V1.2",</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>325</v>
+        <v>243</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>300</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>245</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>"fileModifiedDate":"2017-11-06T16:34:41.000Z",</v>
+        <v>"fileGeneratedBy":"SV Config Tool V1.2",</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>191</v>
+        <v>268</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>301</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>"type":"FeatureCollection",</v>
+        <v>"fileModifiedDate":"2017-11-06T16:34:41.000Z",</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>192</v>
+        <v>174</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>259</v>
+        <v>290</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
@@ -2163,45 +2206,61 @@
  }",</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="O10" s="29" t="str">
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="O10" s="17" t="str">
         <f>""""&amp;A10&amp;""""&amp;":"&amp;""""&amp;B10&amp;""""&amp;","</f>
         <v>"customerCollection":"[]",</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>229</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -2210,19 +2269,22 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>229</v>
+        <v>189</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -2231,19 +2293,22 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>229</v>
+        <v>190</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -2252,34 +2317,64 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="13">
-        <v>5</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
+        <v>175</v>
+      </c>
+      <c r="B14" s="12">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O14" t="str">
+        <f>""""&amp;A14&amp;""""&amp;":"&amp;B14&amp;","</f>
+        <v>"totalFeatures":4,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="O14" t="str">
-        <f>""""&amp;A14&amp;""""&amp;":"&amp;""""&amp;B14&amp;""""&amp;","</f>
-        <v>"totalFeatures":"5",</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>310</v>
+      <c r="B15" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="O15" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;"[ {"</f>
@@ -2292,97 +2387,98 @@
         <v>"":"",</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B17" s="18"/>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -2408,24 +2504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="4.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="16" customWidth="1"/>
     <col min="8" max="8" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" style="23" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.81640625" style="1" customWidth="1"/>
@@ -2434,127 +2530,127 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+        <v>247</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>133</v>
+      <c r="M2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1.01</v>
+        <v>248</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>343</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" ref="O3:O14" si="0">""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
-        <v>"featureVersion":"1.01",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>"featureVersion":"1",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>190</v>
+        <v>250</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>346</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="0"/>
@@ -2563,99 +2659,119 @@
     </row>
     <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>215</v>
+        <v>251</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>122</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>337</v>
       </c>
       <c r="K5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>"featureEffectiveDate":"2016-03-06T16:34:41.000Z",</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>134</v>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
-        <v>"featureEndDate":"2017-11-06T16:34:41.000Z",</v>
+        <v>"featureEndDate":"2099-12-31T23:59:59.999Z",</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>293</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
@@ -2664,105 +2780,110 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>216</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v>"volumeName":"GanderCentralFIR",</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="32" t="s">
+      <c r="C9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="O9" s="29" t="str">
+      <c r="M9" s="20"/>
+      <c r="O9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>"icaoID":"CZQX",</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>352</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
@@ -2771,37 +2892,37 @@
     </row>
     <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>353</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -2810,37 +2931,37 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>354</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
@@ -2849,34 +2970,37 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>355</v>
+        <v>178</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>196</v>
+        <v>61</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
@@ -2885,117 +3009,117 @@
     </row>
     <row r="14" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>52</v>
+        <v>179</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>199</v>
+        <v>125</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
         <v>"featureType":"service",</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="O15" s="29" t="str">
+    <row r="15" spans="1:15" s="17" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="K15" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="O15" s="17" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;""""&amp;B15&amp;""""&amp;","</f>
         <v>"featureState":"active",</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="O16" t="str">
         <f>""""&amp;A16&amp;""""&amp;":"&amp;"{"</f>
@@ -3004,29 +3128,29 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K17" s="3"/>
       <c r="M17" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="O17" t="str">
         <f>""""&amp;A17&amp;""""&amp;":"&amp;"{"</f>
@@ -3035,25 +3159,25 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>136</v>
+        <v>255</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="K18" s="3"/>
       <c r="M18" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="O18" t="str">
         <f>""""&amp;A18&amp;""""&amp;":"&amp;"{"</f>
@@ -3062,86 +3186,86 @@
     </row>
     <row r="19" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="H19" s="13" t="s">
-        <v>230</v>
+        <v>256</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="H19" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="K19" s="3"/>
       <c r="M19" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="O19" t="str">
         <f>""""&amp;A19&amp;""""&amp;":"&amp;"{"</f>
         <v>"performanceFeatureProperties":{</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="M20" s="33"/>
+    <row r="20" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="M20" s="31"/>
     </row>
     <row r="21" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>116</v>
+        <v>182</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>202</v>
+        <v>125</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>123</v>
+        <v>184</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" ref="O21:O27" si="1">""""&amp;A21&amp;""""&amp;":"&amp;""""&amp;B21&amp;""""&amp;","</f>
@@ -3150,68 +3274,68 @@
     </row>
     <row r="22" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>220</v>
+        <v>101</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="K22" s="9"/>
       <c r="O22" t="str">
         <f t="shared" si="1"/>
         <v>"centerPoint":"[-57.877, 51.333]",</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>218</v>
+      <c r="A23" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>118</v>
+        <v>98</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="1"/>
@@ -3219,135 +3343,138 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="A24" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="12">
         <v>18000</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L24">
         <v>18000</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="1"/>
-        <v>"floorFeet":"18000",</v>
+        <f>""""&amp;A24&amp;""""&amp;":"&amp;B24&amp;","</f>
+        <v>"floorFeet":18000,</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="12">
         <v>60000</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L25">
         <v>60000</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="1"/>
-        <v>"ceilingFeet":"60000",</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <f>""""&amp;A25&amp;""""&amp;":"&amp;B25&amp;","</f>
+        <v>"ceilingFeet":60000,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>353</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>125</v>
+        <v>352</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="1"/>
-        <v>"geometry":"[-96,36], [-94,36], [-94,35], [-96,35], [-96,36]",</v>
+        <f>""""&amp;A26&amp;""""&amp;":"&amp;B26&amp;","</f>
+        <v>"geometry": {
+   "type": "Polygon",
+   "coordinates": [
+     [[-96,36], [-94,36], [-94,35], [-96,35], [-96,36]]},</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>127</v>
+        <v>102</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="M27"/>
       <c r="O27" t="str">
@@ -3357,129 +3484,138 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="17">
+        <v>103</v>
+      </c>
+      <c r="B28" s="16">
         <v>2</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M28"/>
       <c r="O28" t="str">
-        <f t="shared" ref="O28:O31" si="2">""""&amp;A28&amp;""""&amp;":"&amp;""""&amp;B28&amp;""""&amp;","</f>
-        <v>"stroke-width":"2",</v>
+        <f>""""&amp;A28&amp;""""&amp;":"&amp;B28&amp;","</f>
+        <v>"stroke-width":2,</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="17">
+        <v>104</v>
+      </c>
+      <c r="B29" s="16">
         <v>1</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="M29"/>
       <c r="O29" t="str">
-        <f t="shared" si="2"/>
-        <v>"stroke-opacity":"1",</v>
+        <f>""""&amp;A29&amp;""""&amp;":"&amp;B29&amp;","</f>
+        <v>"stroke-opacity":1,</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="M30"/>
       <c r="O30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="O28:O31" si="2">""""&amp;A30&amp;""""&amp;":"&amp;""""&amp;B30&amp;""""&amp;","</f>
         <v>"fill":"#334433",</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="17">
+        <v>106</v>
+      </c>
+      <c r="B31" s="16">
         <v>0.5</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M31"/>
       <c r="O31" t="str">
-        <f t="shared" si="2"/>
-        <v>"fill-opacity":"0.5",</v>
+        <f>""""&amp;A31&amp;""""&amp;":"&amp;B31&amp;","</f>
+        <v>"fill-opacity":0.5,</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>43</v>
+        <v>149</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>165</v>
+        <v>127</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O32" t="str">
         <f>""""&amp;A32&amp;""""&amp;":"&amp;""""&amp;B32&amp;""""&amp;","</f>
@@ -3499,19 +3635,18 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:O29"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3519,7 +3654,7 @@
     <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="4.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="16" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" style="4" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
@@ -3530,233 +3665,239 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="21"/>
-      <c r="O3" s="18" t="str">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20"/>
+      <c r="O3" s="17" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"serviceType":"primary",</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="O4" s="18" t="str">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="17" t="str">
         <f>""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
-        <v>"serviceDefaultMode":"null",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="20">
-        <v>700</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="18" t="str">
+        <v>"serviceDefaultMode":"active",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="19">
+        <v>15000</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="O5" s="17" t="str">
         <f>""""&amp;A5&amp;""""&amp;":"&amp;B5&amp;","</f>
-        <v>"contractUpdateIntervalMsecs":700,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="B6" s="20">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="18">
+        <v>"contractUpdateIntervalMsecs":15000,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="19">
         <v>2000</v>
       </c>
-      <c r="O6" s="18" t="str">
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2000</v>
+      </c>
+      <c r="O6" s="17" t="str">
         <f>""""&amp;A6&amp;""""&amp;":"&amp;B6&amp;","</f>
-        <v>"contractLatencyMsecs":1500,</v>
+        <v>"contractLatencyMsecs":2000,</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O7" t="str">
         <f>""""&amp;A7&amp;""""&amp;":"&amp;""""&amp;B7&amp;""""&amp;","</f>
@@ -3764,714 +3905,865 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
-        <v>332</v>
+      <c r="A8" s="41" t="s">
+        <v>308</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="18" t="str">
+        <v>76</v>
+      </c>
+      <c r="L8">
+        <v>90</v>
+      </c>
+      <c r="O8" s="17" t="str">
         <f>""""&amp;A8&amp;""""&amp;":"&amp;B8&amp;","</f>
-        <v>"anspTargetReportMinWaitTimeMsecs":0,</v>
+        <v>"anspTargetReportMinWaitTimeMsecs":700,</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="49" t="s">
-        <v>334</v>
+      <c r="A9" s="41" t="s">
+        <v>310</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="K9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" s="18" t="str">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="O9" s="17" t="str">
         <f>""""&amp;A9&amp;""""&amp;":"&amp;B9&amp;","</f>
-        <v>"anspTargetReportPeriodicRateMsecs":0,</v>
+        <v>"anspTargetReportPeriodicRateMsecs":4000,</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O10" t="str">
         <f>""""&amp;A10&amp;""""&amp;":"&amp;""""&amp;B10&amp;""""&amp;","</f>
         <v>"anspTestTargetReportEnabled":" true",</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" t="str">
+    <row r="11" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="O11" s="57" t="str">
         <f>""""&amp;A11&amp;""""&amp;":"&amp;""""&amp;B11&amp;""""&amp;","</f>
-        <v>"anspTestTargetReportCustom":" true",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" t="str">
-        <f>""""&amp;A12&amp;""""&amp;":"&amp;""""&amp;B12&amp;""""&amp;","</f>
-        <v>"anspTestTargetReportCustomField":" icao",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
+        <v>"anspTestTargetReportICAO":" 0xabc123",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="K12" s="46"/>
+      <c r="O12" s="57" t="str">
+        <f t="shared" ref="O12" si="0">""""&amp;A12&amp;""""&amp;":"&amp;B12&amp;","</f>
+        <v>"anspTestTargetReportPosition":[-57.877, 51.333],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="57" t="str">
+        <f>""""&amp;A13&amp;""""&amp;":"&amp;""""&amp;B13&amp;""""&amp;","</f>
+        <v>"anspTestTargetReportPosType":"false",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="L14" s="57">
+        <v>0</v>
+      </c>
+      <c r="O14" s="57" t="str">
+        <f t="shared" ref="O14:O15" si="1">""""&amp;A14&amp;""""&amp;":"&amp;B14&amp;","</f>
+        <v>"anspTestTargetReportAltFeet":0,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="58">
+        <v>0</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="57">
+        <v>0</v>
+      </c>
+      <c r="O15" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>"anspTestTargetReportRxID":0,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="O16" s="57" t="str">
+        <f>""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
+        <v>"anspTestTargetReportTargetID":"TESTTARG",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="4">
+        <v>90</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13" t="str">
-        <f>""""&amp;A13&amp;""""&amp;":"&amp;""""&amp;B13&amp;""""&amp;","</f>
-        <v>"anspTestTargetReportCustomValue":" 0xfaafaa",</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" s="4">
-        <v>90</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="18" t="str">
-        <f>""""&amp;A14&amp;""""&amp;":"&amp;B14&amp;","</f>
+      <c r="L17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="17" t="str">
+        <f>""""&amp;A17&amp;""""&amp;":"&amp;B17&amp;","</f>
         <v>"offlineStatusThresholdPercent":90,</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="4">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="18" t="str">
-        <f>""""&amp;A15&amp;""""&amp;":"&amp;B15&amp;","</f>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="17" t="str">
+        <f>""""&amp;A18&amp;""""&amp;":"&amp;B18&amp;","</f>
         <v>"degradedStatusThresholdPercent":50,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" t="str">
-        <f>""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
-        <v>"networkServicesAddress":"233.10.11.26",</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" t="s">
-        <v>219</v>
-      </c>
-      <c r="O17" t="str">
-        <f>""""&amp;A17&amp;""""&amp;":"&amp;""""&amp;B17&amp;""""&amp;","</f>
-        <v>"networkServicesAddress2":"233.10.11.27",</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" s="17">
-        <v>59980</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L18" s="17">
-        <v>59980</v>
-      </c>
-      <c r="O18" s="18" t="str">
-        <f t="shared" ref="O18:O29" si="0">""""&amp;A18&amp;""""&amp;":"&amp;B18&amp;","</f>
-        <v>"portTargetReportsCAT021":59980,</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" s="17">
-        <v>59991</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L19" s="17">
-        <v>59991</v>
-      </c>
-      <c r="O19" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portVersionNumberCAT247":59991,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" t="str">
+        <f>""""&amp;A19&amp;""""&amp;":"&amp;""""&amp;B19&amp;""""&amp;","</f>
+        <v>"networkServicesAddress":"233.10.11.26",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" s="17">
-        <v>65535</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>57</v>
+        <v>192</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L20" s="17">
-        <v>65535</v>
-      </c>
-      <c r="O20" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portAPDKeepAlive":65535,</v>
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="str">
+        <f>""""&amp;A20&amp;""""&amp;":"&amp;""""&amp;B20&amp;""""&amp;","</f>
+        <v>"networkServicesAddress2":"233.10.11.27",</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="16">
+        <v>59980</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="17">
-        <v>59986</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L21" s="17">
-        <v>59986</v>
-      </c>
-      <c r="O21" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portGSTR":59986,</v>
+      <c r="L21" s="16">
+        <v>59980</v>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f t="shared" ref="O21:O32" si="2">""""&amp;A21&amp;""""&amp;":"&amp;B21&amp;","</f>
+        <v>"portTargetReportsCAT021":59980,</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="17">
-        <v>59982</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>57</v>
+        <v>214</v>
+      </c>
+      <c r="B22" s="16">
+        <v>59991</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="17">
-        <v>59982</v>
-      </c>
-      <c r="O22" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portEquipmentStatusCAT023":59982,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="16">
+        <v>59991</v>
+      </c>
+      <c r="O22" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portVersionNumberCAT247":59991,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" s="17">
-        <v>59983</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>57</v>
+        <v>215</v>
+      </c>
+      <c r="B23" s="16">
+        <v>65535</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L23" s="17">
-        <v>59983</v>
-      </c>
-      <c r="O23" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServiceVolumeStatusCAT023":59983,</v>
+        <v>225</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" s="16">
+        <v>65535</v>
+      </c>
+      <c r="O23" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portAPDKeepAlive":65535,</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" s="4">
-        <v>59984</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>57</v>
+        <v>216</v>
+      </c>
+      <c r="B24" s="16">
+        <v>59986</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L24" s="17">
-        <v>59984</v>
-      </c>
-      <c r="O24" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServiceVolumeStatisticsCAT023":59984,</v>
+        <v>229</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="16">
+        <v>59986</v>
+      </c>
+      <c r="O24" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portGSTR":59986,</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="4">
-        <v>59988</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>57</v>
+        <v>217</v>
+      </c>
+      <c r="B25" s="16">
+        <v>59982</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L25" s="17">
-        <v>59988</v>
-      </c>
-      <c r="O25" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServiceDefinitionReportCAT238":59988,</v>
+        <v>226</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="16">
+        <v>59982</v>
+      </c>
+      <c r="O25" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portEquipmentStatusCAT023":59982,</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="4">
-        <v>59990</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>57</v>
+        <v>218</v>
+      </c>
+      <c r="B26" s="16">
+        <v>59983</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L26" s="17">
-        <v>59990</v>
-      </c>
-      <c r="O26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServicePredictionReportCAT238":59990,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="16">
+        <v>59983</v>
+      </c>
+      <c r="O26" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServiceVolumeStatusCAT023":59983,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B27" s="4">
-        <v>59992</v>
+        <v>59984</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L27" s="17">
-        <v>59992</v>
-      </c>
-      <c r="O27" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServiceSystemStatusReportCAT025":59992,</v>
+        <v>228</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" s="16">
+        <v>59984</v>
+      </c>
+      <c r="O27" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServiceVolumeStatisticsCAT023":59984,</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B28" s="4">
-        <v>59993</v>
+        <v>59988</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L28" s="17">
-        <v>59993</v>
-      </c>
-      <c r="O28" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portServiceStatisticsReport":59993,</v>
+        <v>230</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" s="16">
+        <v>59988</v>
+      </c>
+      <c r="O28" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServiceDefinitionReportCAT238":59988,</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B29" s="4">
+        <v>59990</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="16">
+        <v>59990</v>
+      </c>
+      <c r="O29" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServicePredictionReportCAT238":59990,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="4">
+        <v>59992</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" s="16">
+        <v>59992</v>
+      </c>
+      <c r="O30" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServiceSystemStatusReportCAT025":59992,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" s="4">
+        <v>59993</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" s="16">
+        <v>59993</v>
+      </c>
+      <c r="O31" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portServiceStatisticsReportCAT025":59993,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" s="4">
         <v>59994</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L29" s="17">
+      <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="16">
         <v>59994</v>
       </c>
-      <c r="O29" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>"portConstellationTLEReport":59994,</v>
+      <c r="O32" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>"portConstellationTLEReportCAT253":59994,</v>
       </c>
     </row>
   </sheetData>
@@ -4488,13 +4780,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4502,7 +4794,7 @@
     <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="4.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="16" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" style="4" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
@@ -4513,145 +4805,154 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>168</v>
+      <c r="M2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>109</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"billable":"false",</v>
       </c>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O9" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
+        <f t="shared" ref="O4:O10" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
         <v>"billingType":"time",</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>175</v>
+        <v>74</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4660,34 +4961,37 @@
     </row>
     <row r="6" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>174</v>
+        <v>52</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="O6" t="str">
         <f>""""&amp;A6&amp;""""&amp;":"&amp;B6&amp;","</f>
@@ -4696,98 +5000,133 @@
     </row>
     <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>43</v>
+        <v>161</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
         <v>"billingUnit":"hour",</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O8" t="str">
+    <row r="8" spans="1:18" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="M8" s="65"/>
+      <c r="O8" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v>"billingRate":"C",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v>"billingEffectiveDate":"2017-11-06T16:34:41.000Z",</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="O9" t="str">
-        <f t="shared" si="0"/>
-        <v>"billingEndDate":"2017-11-06T16:34:41.000Z",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="K10" s="1"/>
+    <row r="10" spans="1:18" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>"billingEndDate":"2099-12-31T23:59:59.999Z",</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K13" s="1"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K12" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K15" s="3"/>
@@ -4797,17 +5136,21 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4829,15 +5172,15 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.7265625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.7265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="16" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
@@ -4847,67 +5190,70 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>168</v>
+      <c r="M2" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="K3" s="1"/>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
-        <v>"":"",</v>
+        <v>"placeholder for future use":"",</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4918,8 +5264,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="10"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="9"/>
+      <c r="I5" s="16"/>
       <c r="K5" s="1"/>
       <c r="O5" t="str">
         <f t="shared" si="0"/>
@@ -4927,7 +5273,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I6" s="17"/>
+      <c r="I6" s="16"/>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -4952,23 +5298,23 @@
         <v>"":"",</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="M10" s="21"/>
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="K11" s="1"/>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
@@ -5138,25 +5484,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.7265625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.7265625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="18" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
@@ -5166,517 +5512,521 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+        <v>19</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>133</v>
+      <c r="M2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="51" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="O3" s="51" t="str">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="O3" s="40" t="str">
         <f t="shared" ref="O3" si="0">""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
         <v>"customerID":"NAVCanada",</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="31">
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="19">
         <v>50</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="29" t="str">
+      <c r="C4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="17" t="str">
         <f>""""&amp;A4&amp;""""&amp;":"&amp;B4&amp;","</f>
         <v>"anspTargetReportBundleTimeMsecs":50,</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="29" t="str">
+      <c r="K5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="17" t="str">
         <f>""""&amp;A5&amp;""""&amp;":"&amp;""""&amp;B5&amp;""""&amp;","</f>
         <v>"barometricAltitudeRounding":" true",</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="29" t="str">
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="17" t="str">
         <f>""""&amp;A6&amp;""""&amp;":"&amp;""""&amp;B6&amp;""""&amp;","</f>
         <v>"statusReportFormat":"cat025",</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="29" t="str">
+    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="17" t="str">
         <f>""""&amp;A7&amp;""""&amp;":"&amp;""""&amp;B7&amp;""""&amp;","</f>
         <v>"tleEnabled":" true",</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
-        <v>340</v>
-      </c>
-      <c r="B8" s="31">
+    <row r="8" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="17">
         <v>5</v>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="17" t="str">
         <f t="shared" ref="O8:O14" si="1">""""&amp;A8&amp;""""&amp;":"&amp;B8&amp;","</f>
         <v>"rateEquipmentStatusSecs":5,</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" s="31">
+    <row r="9" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="19">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="29">
+      <c r="C9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="17">
         <v>5</v>
       </c>
-      <c r="O9" s="29" t="str">
+      <c r="O9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"rateServiceVolumeStatusSecs":5,</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="31">
+    <row r="10" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="19">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="29">
+      <c r="C10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" s="17">
         <v>5</v>
       </c>
-      <c r="O10" s="29" t="str">
+      <c r="O10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"rateServiceVolumeStatisticsSecs":5,</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="31">
+    <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="19">
         <v>24</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="29">
+      <c r="C11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="17">
         <v>24</v>
       </c>
-      <c r="O11" s="29" t="str">
+      <c r="O11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"servicePredictionReportLookAheadHours":24,</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="31">
+    <row r="12" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="19">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="29">
+      <c r="C12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="17">
         <v>2</v>
       </c>
-      <c r="O12" s="29" t="str">
+      <c r="O12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"rateServicePredictionReportMins":1,</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="31">
+    <row r="13" spans="1:15" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="19">
         <v>12</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="29">
+      <c r="C13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="17">
         <v>5</v>
       </c>
-      <c r="O13" s="29" t="str">
+      <c r="O13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"rateServicePredictionDefinitionMins":12,</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="B14" s="31">
+    <row r="14" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="19">
         <v>60</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="29" t="str">
+      <c r="C14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>"rateVersionNumberReportMins":60,</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="31" t="b">
+    <row r="15" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="29" t="b">
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="O15" s="29" t="str">
+      <c r="O15" s="17" t="str">
         <f>""""&amp;A15&amp;""""&amp;":"&amp;""""&amp;B15&amp;""""&amp;","</f>
         <v>"gstrProvided":"FALSE",</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:15" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" s="29" t="str">
+      <c r="O16" s="17" t="str">
         <f>""""&amp;A16&amp;""""&amp;":"&amp;""""&amp;B16&amp;""""&amp;","</f>
         <v>"networkServicesGSTR":"239.1.4.5",</v>
       </c>
@@ -5707,49 +6057,49 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I20" s="28"/>
-      <c r="K20" s="11"/>
+      <c r="I20" s="26"/>
+      <c r="K20" s="10"/>
       <c r="O20" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B21" s="11"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="28"/>
-      <c r="K21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="26"/>
+      <c r="K21" s="9"/>
       <c r="O21" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I22" s="28"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="26"/>
+      <c r="K22" s="9"/>
       <c r="O22" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="K23" s="26"/>
       <c r="O23" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="26"/>
       <c r="O24" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I25" s="28"/>
+      <c r="I25" s="26"/>
       <c r="O25" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -5763,7 +6113,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I27" s="28"/>
+      <c r="I27" s="26"/>
       <c r="O27" t="str">
         <f t="shared" si="2"/>
         <v>"":"",</v>
@@ -5826,7 +6176,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5844,9 +6193,9 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.7265625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="18" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.7265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.1796875" customWidth="1"/>
     <col min="10" max="10" width="64.26953125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
@@ -5856,79 +6205,79 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+        <v>19</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>133</v>
+      <c r="M2" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="12">
         <v>60</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>57</v>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="O3" t="str">
         <f>""""&amp;A3&amp;""""&amp;":"&amp;""""&amp;B3&amp;""""&amp;","</f>
@@ -5936,17 +6285,17 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="12">
         <v>240</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>43</v>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" ref="O4:O34" si="0">""""&amp;A4&amp;""""&amp;":"&amp;""""&amp;B4&amp;""""&amp;","</f>
@@ -5960,16 +6309,16 @@
         <v>"":"",</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="M6" s="21"/>
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -6012,17 +6361,17 @@
         <v>"":"",</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="21"/>
+    <row r="13" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -6036,7 +6385,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="K15" s="9"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="3"/>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
@@ -6069,49 +6418,49 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I19" s="17"/>
-      <c r="K19" s="11"/>
+      <c r="I19" s="16"/>
+      <c r="K19" s="10"/>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="17"/>
-      <c r="K20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="16"/>
+      <c r="K20" s="9"/>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I21" s="17"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="16"/>
+      <c r="K21" s="9"/>
       <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="I22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="K23" s="16"/>
       <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I24" s="17"/>
+      <c r="I24" s="16"/>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -6125,7 +6474,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I26" s="17"/>
+      <c r="I26" s="16"/>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v>"":"",</v>
@@ -6206,36 +6555,36 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6257,108 +6606,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>184</v>
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
-        <v>43</v>
+      <c r="A2" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>43</v>
+      <c r="A3" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>43</v>
+      <c r="A4" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>43</v>
+      <c r="A5" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
